--- a/VersionRecords/Version 5.1.6 20161212/版本Bug和特性计划及评审表.xlsx
+++ b/VersionRecords/Version 5.1.6 20161212/版本Bug和特性计划及评审表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\mogo\Mogo_Doc\VersionRecords\Version 5.1.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.6 20161212\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.6 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5065,6 +5065,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
@@ -5501,7 +5502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -6583,7 +6584,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7649,8 +7650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
